--- a/LabSignup/LabSignup/bin/Debug/LabData.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/LabData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8F6BE-54DA-4E80-A5F3-9BB60E420372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9011BADE-A025-4476-A85D-4866F8310717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="2385" windowWidth="9525" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17760" yWindow="1725" windowWidth="9525" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>LabName</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Who are Doctors</t>
+  </si>
+  <si>
+    <t>What are STD's</t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +449,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45040</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
